--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="14360" yWindow="440" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +96,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,7 +128,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -132,6 +138,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -476,7 +483,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -578,7 +585,7 @@
       <c r="C4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>0.32100000000000001</v>
       </c>
       <c r="E4">
@@ -1024,7 +1031,7 @@
       <c r="M14">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="9">
         <v>0.47699999999999998</v>
       </c>
     </row>

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="440" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="14340" yWindow="200" windowWidth="21240" windowHeight="19220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mar 24, 2016" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t xml:space="preserve">perception </t>
   </si>
@@ -38,12 +39,21 @@
   <si>
     <t>component 3</t>
   </si>
+  <si>
+    <t>component 1(#2in figure)</t>
+  </si>
+  <si>
+    <t>component 2(#3 in figure)</t>
+  </si>
+  <si>
+    <t>component 3 (#4 in figure)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +88,11 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="5">
@@ -115,7 +130,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -127,8 +142,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -139,18 +160,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1581,6 +1609,1700 @@
       <c r="N30" s="6">
         <v>0.19900000000000001</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="16" max="16" width="47.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.159</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.159</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.224</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.158</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.308</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.113</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.245</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.157</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.184</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.192</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.312</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.107</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.215</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K9" s="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.108</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17">
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K11" s="6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.255</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.109</v>
+      </c>
+      <c r="G12" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.254</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.219</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.111</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="M14" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="D19">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.182</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="J19" s="7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="M19" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.187</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L20" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D21">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.113</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L21" s="7">
+        <v>183</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.129</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D22">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E22" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="M22" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.17</v>
+      </c>
+      <c r="E23" s="7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0.121</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="M24" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.114</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J25" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="L25" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0.1148</v>
+      </c>
+      <c r="D26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.253</v>
+      </c>
+      <c r="K26" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14" customHeight="1">
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.193</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="M27" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F28" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K28" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.182</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K29" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="L29" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.106</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D30">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.151</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.108</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="L30" s="7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M30" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.377</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.224</v>
+      </c>
+      <c r="L35" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.128</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G36" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="I36" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J36" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K36" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.155</v>
+      </c>
+      <c r="N36" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.121</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.193</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.157</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.182</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39" s="8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.123</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G39" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="J39" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.219</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="N40" s="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F41" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.108</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="F42" s="8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.126</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.159</v>
+      </c>
+      <c r="K42" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="N42" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F43" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.215</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.221</v>
+      </c>
+      <c r="M43" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N43" s="7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.104</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.113</v>
+      </c>
+      <c r="E44" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="H44" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.253</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="L44" s="6">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45">
+        <v>23</v>
+      </c>
+      <c r="C45" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E45" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.112</v>
+      </c>
+      <c r="G45" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K45" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="N45" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46">
+        <v>24</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E46" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.254</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="H46" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K46" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L46" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M46" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
